--- a/Version3_Newswire/Raw/AR.xlsx
+++ b/Version3_Newswire/Raw/AR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\Version3 - 複製\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\Version3_Newswire\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B45AC9C-6ED5-4232-893D-CB02145C9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A6265-FF85-4CCE-9346-22D75EC74832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表4" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="272">
   <si>
     <t>代號</t>
   </si>
@@ -932,13 +932,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4515,60 +4518,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9FD1E-25F5-4B77-9485-21162AA570DD}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4966</v>
       </c>
       <c r="B2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>2729</v>
+      </c>
+      <c r="K2">
+        <f>VLOOKUP(J2,A:A,1,FALSE)</f>
+        <v>2729</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2729</v>
+      </c>
+      <c r="O2">
+        <f>VLOOKUP(N2,A:A,1,FALSE)</f>
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3105</v>
       </c>
       <c r="B3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>5301</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="0">VLOOKUP(J3,A:A,1,FALSE)</f>
+        <v>5301</v>
+      </c>
+      <c r="N3" s="4">
+        <v>5301</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">VLOOKUP(N3,A:A,1,FALSE)</f>
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5285</v>
       </c>
       <c r="B4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1312</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1312</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1312</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5388</v>
       </c>
       <c r="B5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1314</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1314</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1314</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8176</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1326</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1326</v>
+      </c>
+      <c r="O6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4904</v>
       </c>
@@ -4578,104 +4651,286 @@
       <c r="C7" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>2545</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>2545</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2545</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3234</v>
       </c>
       <c r="B8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>2207</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2207</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2207</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5353</v>
       </c>
       <c r="B9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>2385</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>2385</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2385</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4908</v>
       </c>
       <c r="B10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>2484</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2484</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2484</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2444</v>
       </c>
       <c r="B11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>3229</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>3229</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3229</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3019</v>
       </c>
       <c r="B12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>3653</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3653</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3653</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2429</v>
       </c>
       <c r="B13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>6290</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>6290</v>
+      </c>
+      <c r="N13" s="4">
+        <v>6290</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6560</v>
       </c>
       <c r="B14" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>8043</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>8043</v>
+      </c>
+      <c r="N14" s="4">
+        <v>8043</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2409</v>
       </c>
       <c r="B15" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>8091</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>8091</v>
+      </c>
+      <c r="N15" s="4">
+        <v>8091</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8049</v>
       </c>
       <c r="B16" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>1437</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1437</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1437</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3615</v>
       </c>
       <c r="B17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>2348</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>2348</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2348</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6116</v>
       </c>
       <c r="B18" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>5530</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>5530</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5530</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6281</v>
       </c>
       <c r="B19" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>1417</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1417</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1417</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2347</v>
       </c>
@@ -4688,496 +4943,1370 @@
       <c r="D20" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>1419</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1419</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1419</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4994</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1434</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1434</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1434</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5203</v>
       </c>
       <c r="B22" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>1440</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1440</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2427</v>
       </c>
       <c r="B23" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>1445</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1445</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1445</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8416</v>
       </c>
       <c r="B24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>1446</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1446</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1446</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5210</v>
       </c>
       <c r="B25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>1457</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>1457</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1457</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2453</v>
       </c>
       <c r="B26" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>1463</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1463</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1463</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4953</v>
       </c>
       <c r="B27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>4401</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>4401</v>
+      </c>
+      <c r="N27" s="4">
+        <v>4401</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5403</v>
       </c>
       <c r="B28" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>5306</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>5306</v>
+      </c>
+      <c r="N28" s="4">
+        <v>5306</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5410</v>
       </c>
       <c r="B29" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>9921</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>9921</v>
+      </c>
+      <c r="N29" s="4">
+        <v>9921</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>9921</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6123</v>
       </c>
       <c r="B30" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>1503</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>1503</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1503</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2915</v>
       </c>
       <c r="B31" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>1558</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1558</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1558</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2207</v>
       </c>
       <c r="B32" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>1590</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>1590</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1590</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2385</v>
       </c>
       <c r="B33" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>2235</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>2235</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2235</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2484</v>
       </c>
       <c r="B34" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>2371</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>2371</v>
+      </c>
+      <c r="N34" s="4">
+        <v>2371</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6290</v>
       </c>
       <c r="B35" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>3176</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>3176</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3176</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8091</v>
       </c>
       <c r="B36" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>4744</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>4744</v>
+      </c>
+      <c r="N36" s="4">
+        <v>4744</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3229</v>
       </c>
       <c r="B37" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>6615</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>6615</v>
+      </c>
+      <c r="N37" s="4">
+        <v>6615</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3653</v>
       </c>
       <c r="B38" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>1569</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>1569</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1569</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5301</v>
       </c>
       <c r="B39" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>2387</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>2387</v>
+      </c>
+      <c r="N39" s="4">
+        <v>2387</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8043</v>
       </c>
       <c r="B40" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>3002</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>3002</v>
+      </c>
+      <c r="N40" s="4">
+        <v>3002</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2729</v>
       </c>
       <c r="B41" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>3017</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>3017</v>
+      </c>
+      <c r="N41" s="4">
+        <v>3017</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1301</v>
       </c>
       <c r="B42" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>3060</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>3060</v>
+      </c>
+      <c r="N42" s="4">
+        <v>3060</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1437</v>
       </c>
       <c r="B43" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>3611</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>3611</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3611</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1314</v>
       </c>
       <c r="B44" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>5438</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>5438</v>
+      </c>
+      <c r="N44" s="4">
+        <v>5438</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2348</v>
       </c>
       <c r="B45" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>6121</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>6121</v>
+      </c>
+      <c r="N45" s="4">
+        <v>6121</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5530</v>
       </c>
       <c r="B46" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>1722</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>1722</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1722</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1434</v>
       </c>
       <c r="B47" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>1776</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>1776</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1776</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1440</v>
       </c>
       <c r="B48" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>5225</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>5225</v>
+      </c>
+      <c r="N48" s="4">
+        <v>5225</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1445</v>
       </c>
       <c r="B49" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>6409</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>6409</v>
+      </c>
+      <c r="N49" s="4">
+        <v>6409</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>6409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1419</v>
       </c>
       <c r="B50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>8464</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>8464</v>
+      </c>
+      <c r="N50" s="4">
+        <v>8464</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1417</v>
       </c>
       <c r="B51" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>2208</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>2208</v>
+      </c>
+      <c r="N51" s="4">
+        <v>2208</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4401</v>
       </c>
       <c r="B52" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>2603</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>2603</v>
+      </c>
+      <c r="N52" s="4">
+        <v>2603</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1446</v>
       </c>
       <c r="B53" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>2633</v>
+      </c>
+      <c r="K53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N53" s="4">
+        <v>2633</v>
+      </c>
+      <c r="O53" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1457</v>
       </c>
       <c r="B54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>8367</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>8367</v>
+      </c>
+      <c r="N54" s="4">
+        <v>8367</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>8367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1312</v>
       </c>
       <c r="B55" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>2303</v>
+      </c>
+      <c r="K55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N55" s="4">
+        <v>2303</v>
+      </c>
+      <c r="O55" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1463</v>
       </c>
       <c r="B56" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>3034</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>3034</v>
+      </c>
+      <c r="N56" s="4">
+        <v>3034</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5306</v>
       </c>
       <c r="B57" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>3105</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>3105</v>
+      </c>
+      <c r="N57" s="4">
+        <v>3105</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9921</v>
       </c>
       <c r="B58" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <v>3413</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>3413</v>
+      </c>
+      <c r="N58" s="4">
+        <v>3413</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2371</v>
       </c>
       <c r="B59" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <v>4966</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>4966</v>
+      </c>
+      <c r="N59" s="4">
+        <v>4966</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1503</v>
       </c>
       <c r="B60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <v>5285</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>5285</v>
+      </c>
+      <c r="N60" s="4">
+        <v>5285</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1558</v>
       </c>
       <c r="B61" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <v>2412</v>
+      </c>
+      <c r="K61" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L61" t="s">
+        <v>270</v>
+      </c>
+      <c r="N61" s="4">
+        <v>2444</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1590</v>
       </c>
       <c r="B62" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <v>2444</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>2444</v>
+      </c>
+      <c r="N62" s="4">
+        <v>2498</v>
+      </c>
+      <c r="O62" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2235</v>
       </c>
       <c r="B63" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>3234</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>3234</v>
+      </c>
+      <c r="N63" s="4">
+        <v>3234</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3176</v>
       </c>
       <c r="B64" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>4908</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>4908</v>
+      </c>
+      <c r="N64" s="4">
+        <v>4908</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4744</v>
       </c>
       <c r="B65" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <v>5353</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>5353</v>
+      </c>
+      <c r="N65" s="4">
+        <v>5353</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6615</v>
       </c>
       <c r="B66" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <v>5388</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>5388</v>
+      </c>
+      <c r="N66" s="4">
+        <v>5388</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5438</v>
       </c>
       <c r="B67" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <v>8176</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K87" si="2">VLOOKUP(J67,A:A,1,FALSE)</f>
+        <v>8176</v>
+      </c>
+      <c r="N67" s="4">
+        <v>8176</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O87" si="3">VLOOKUP(N67,A:A,1,FALSE)</f>
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3017</v>
       </c>
       <c r="B68" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <v>2409</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>2409</v>
+      </c>
+      <c r="N68" s="4">
+        <v>2409</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="3"/>
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2387</v>
       </c>
       <c r="B69" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <v>2429</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>2429</v>
+      </c>
+      <c r="N69" s="4">
+        <v>2429</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="3"/>
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3060</v>
       </c>
       <c r="B70" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <v>3019</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>3019</v>
+      </c>
+      <c r="N70" s="4">
+        <v>3019</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="3"/>
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3002</v>
       </c>
       <c r="B71" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <v>3615</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>3615</v>
+      </c>
+      <c r="N71" s="4">
+        <v>3615</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6121</v>
       </c>
       <c r="B72" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <v>6116</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>6116</v>
+      </c>
+      <c r="N72" s="4">
+        <v>6116</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3611</v>
       </c>
       <c r="B73" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J73">
+        <v>6560</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>6560</v>
+      </c>
+      <c r="N73" s="4">
+        <v>6560</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1569</v>
       </c>
       <c r="B74" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J74">
+        <v>8049</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>8049</v>
+      </c>
+      <c r="N74" s="4">
+        <v>8049</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2545</v>
       </c>
       <c r="B75" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <v>3036</v>
+      </c>
+      <c r="K75" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="s">
+        <v>270</v>
+      </c>
+      <c r="N75" s="4">
+        <v>6281</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1722</v>
       </c>
       <c r="B76" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <v>6281</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>6281</v>
+      </c>
+      <c r="N76" s="4">
+        <v>8112</v>
+      </c>
+      <c r="O76" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1776</v>
       </c>
       <c r="B77" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <v>2427</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>2427</v>
+      </c>
+      <c r="N77" s="4">
+        <v>2427</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="3"/>
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>6409</v>
       </c>
       <c r="B78" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J78">
+        <v>2453</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>2453</v>
+      </c>
+      <c r="N78" s="4">
+        <v>2453</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="3"/>
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5225</v>
       </c>
       <c r="B79" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <v>4953</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>4953</v>
+      </c>
+      <c r="N79" s="4">
+        <v>4953</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="3"/>
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>8464</v>
       </c>
       <c r="B80" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <v>4994</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>4994</v>
+      </c>
+      <c r="N80" s="4">
+        <v>4994</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="3"/>
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2208</v>
       </c>
       <c r="B81" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <v>5203</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>5203</v>
+      </c>
+      <c r="N81" s="4">
+        <v>5203</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="3"/>
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2610</v>
       </c>
@@ -5187,45 +6316,129 @@
       <c r="C82" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <v>5210</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>5210</v>
+      </c>
+      <c r="N82" s="4">
+        <v>5210</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="3"/>
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2603</v>
       </c>
       <c r="B83" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <v>5403</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>5403</v>
+      </c>
+      <c r="N83" s="4">
+        <v>5403</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="3"/>
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8367</v>
       </c>
       <c r="B84" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <v>5410</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>5410</v>
+      </c>
+      <c r="N84" s="4">
+        <v>5410</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="3"/>
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3034</v>
       </c>
       <c r="B85" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <v>6123</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>6123</v>
+      </c>
+      <c r="N85" s="4">
+        <v>6123</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="3"/>
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3413</v>
       </c>
       <c r="B86" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <v>8416</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>8416</v>
+      </c>
+      <c r="N86" s="4">
+        <v>8416</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="3"/>
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2330</v>
       </c>
       <c r="B87" t="s">
         <v>269</v>
+      </c>
+      <c r="J87">
+        <v>2915</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="2"/>
+        <v>2915</v>
+      </c>
+      <c r="N87" s="4">
+        <v>2915</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="3"/>
+        <v>2915</v>
       </c>
     </row>
   </sheetData>
